--- a/b_oop/oop1_patient.xlsx
+++ b/b_oop/oop1_patient.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.maccarthy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E16C4E9-C854-4F29-9938-29091894C61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D3D6E-96AE-4547-AEE7-81A27CF58BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCEFE47D-A5A4-4F9E-8EBB-4C1F6327E1A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="ClassDiagram" sheetId="1" r:id="rId1"/>
+    <sheet name="class Patient" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>class Patient</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>respiration_rate</t>
   </si>
 </sst>
 </file>
@@ -98,13 +104,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -441,15 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C89C017-C77A-4EFA-8464-1B769F4615DC}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -458,6 +468,14 @@
       </c>
       <c r="B1" s="3"/>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
